--- a/ImportStudent/ImportCompanySample.xlsx
+++ b/ImportStudent/ImportCompanySample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\InternGuide\ImportStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8AF8A6-77D9-45D5-9B81-D183E1E36CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D1A439-7BE5-4A2F-A1D2-BE031F1B9EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A64CB79F-DD79-4E5D-B8CF-BC3B67515455}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>companyname</t>
   </si>
@@ -51,19 +51,46 @@
     <t>remark</t>
   </si>
   <si>
-    <t>awdawd</t>
-  </si>
-  <si>
-    <t>dawda@feaf.com</t>
-  </si>
-  <si>
-    <t>ambot</t>
-  </si>
-  <si>
-    <t>wew</t>
-  </si>
-  <si>
-    <t>awdawdq</t>
+    <t>ABC Company</t>
+  </si>
+  <si>
+    <t>123 Main Street</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>555-1234</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>XYZ Ltd</t>
+  </si>
+  <si>
+    <t>456 Oak Avenue</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>jane.smith@example.com</t>
+  </si>
+  <si>
+    <t>Excellent</t>
   </si>
 </sst>
 </file>
@@ -426,70 +453,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60DE9E-D36A-49B6-A54D-C6C40D52809A}">
-  <dimension ref="B1:I2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2">
-        <v>123123</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>123123</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>2312</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>2020</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>2019</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{06867E87-7368-48CF-8FFB-0BFE6B5CE670}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>